--- a/PROJECT/MACH/MACH_THUC/MACH_THUC/DANH_SACH_LINH_KIEN/DS_LINH_KIEN.xlsx
+++ b/PROJECT/MACH/MACH_THUC/MACH_THUC/DANH_SACH_LINH_KIEN/DS_LINH_KIEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\HKII-2023-2024\DO_AN_1\PROJECT\MACH\MACH_THUC\MACH_THUC\DANH_SACH_LINH_KIEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C95C86B-4048-444D-BF91-BE0670F4791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281D9A5-1A26-41E9-BB02-9892A6AC9F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -46,13 +46,313 @@
   </si>
   <si>
     <t>DANH SÁCH LINH KIỆN MUA</t>
+  </si>
+  <si>
+    <t>domino 4 2.54</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/kf120-4-v-domino-4-chan-thang-2-54mm-150v-6a-han-pcb</t>
+  </si>
+  <si>
+    <t>4.500đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/ss-12f23g4-cong-tac-truot-5-chan-xuyen-lo-on-off-chinh-ngang-1p2t-2a</t>
+  </si>
+  <si>
+    <t>công tắt gạc</t>
+  </si>
+  <si>
+    <t>0.600đ</t>
+  </si>
+  <si>
+    <t>trở công suất 100ohm</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-1-ohm-1w-5-4-vong-mau</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-hoa-1000uf-25v-10x17mm-xuyen-lo</t>
+  </si>
+  <si>
+    <t>tụ hóa 1000uF</t>
+  </si>
+  <si>
+    <t>3.000đ</t>
+  </si>
+  <si>
+    <t>tụ lọc 104</t>
+  </si>
+  <si>
+    <t>4.000đ</t>
+  </si>
+  <si>
+    <t>1.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-gom-tron-100nf-0-1uf-50v</t>
+  </si>
+  <si>
+    <t>tụ hóa 470uF</t>
+  </si>
+  <si>
+    <t>0.700đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-hoa-470uf-25v-8x12mm-xuyen-lo</t>
+  </si>
+  <si>
+    <t>2SB688 Transistor PNP 120V 8A 3 Chân SOT-93</t>
+  </si>
+  <si>
+    <t>12.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/2sb688-transistor-pnp-120v-8a-3-chan-sot-93</t>
+  </si>
+  <si>
+    <t>didode 1n4007</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/1n4007-diode-chinh-luu-1a-1kv</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-1-kohm-1-4w-5-4-vong-mau</t>
+  </si>
+  <si>
+    <t>trở 1kohm</t>
+  </si>
+  <si>
+    <t>2.000đ</t>
+  </si>
+  <si>
+    <t>đèn xanh</t>
+  </si>
+  <si>
+    <t>2.400đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/led-xanh-duong-5mm-chan-dai</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-hoa-2-2uf-50v-4x7mm-xuyen-lo</t>
+  </si>
+  <si>
+    <t>tụ hóa 2.2uF</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-hoa-10uf-16v-4x7mm-xuyen-lo</t>
+  </si>
+  <si>
+    <t>tụ hóa 10uF</t>
+  </si>
+  <si>
+    <t>2.500đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/b1205s-1wr3-chuyen-doi-dc-dc-vao-12v-ra-5v-1w</t>
+  </si>
+  <si>
+    <t>38.000đ</t>
+  </si>
+  <si>
+    <t>nguồn cách ly</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/nut-nhan-d5-cao-5mm-2-chan-tron-xuyen-lo</t>
+  </si>
+  <si>
+    <t>6.000đ</t>
+  </si>
+  <si>
+    <t>nút nhấn</t>
+  </si>
+  <si>
+    <t>trở 10kohm</t>
+  </si>
+  <si>
+    <t>2.530đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-10-kohm-1-4w-1-5-vong-mau</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-4-7-kohm-1-4w-1-5-vong-mau</t>
+  </si>
+  <si>
+    <t>trở 4.7kohm</t>
+  </si>
+  <si>
+    <t>Thạch anh 20Mhz</t>
+  </si>
+  <si>
+    <t>1.500đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/thach-anh-20mhz-2-chan-dip-hc49-s</t>
+  </si>
+  <si>
+    <t>tụ gốm 33pF</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/tu-gom-tron-33pf-50v</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/thach-anh-32-768khz-3x8mm</t>
+  </si>
+  <si>
+    <t>Thạch anh 32.678Khz</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/cr2032-de-pin-3v-xuyen-lo</t>
+  </si>
+  <si>
+    <t>đế pin cr2032</t>
+  </si>
+  <si>
+    <t>0.800đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/l7805cv-ic-on-ap-5v-1-5a</t>
+  </si>
+  <si>
+    <t>5.500đ</t>
+  </si>
+  <si>
+    <t>đế 16f877a</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/de-ic-40-chan-vuong-hai-hang-2-54mm-1a-60vac</t>
+  </si>
+  <si>
+    <t>1.300đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/pic16f877a-i-p-8-bit-pic-microcontroller-20mhz-14kb-flash-40-dip</t>
+  </si>
+  <si>
+    <t>16f877a</t>
+  </si>
+  <si>
+    <t>91.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/ds1307-cn-ic-rtc-clock-calendar-56b-8-dip</t>
+  </si>
+  <si>
+    <t>ds1307</t>
+  </si>
+  <si>
+    <t>5.000đ</t>
+  </si>
+  <si>
+    <t>ds18b20</t>
+  </si>
+  <si>
+    <t>71.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/ds18b20-day-cam-bien-nhiet-do-dai-1m-55-125-c</t>
+  </si>
+  <si>
+    <t>domino 3 2.54</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/kf120-3-v-domino-3-chan-thang-2-54mm-han-150v-6a-pcb</t>
+  </si>
+  <si>
+    <t>11.500đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/rm065-103-bien-tro-10-kohm-nut-ao-chinh-top-0-1w</t>
+  </si>
+  <si>
+    <t>biến trở</t>
+  </si>
+  <si>
+    <t>0.900đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/lcd-1602-nen-xanh-duong-chu-trang-5v</t>
+  </si>
+  <si>
+    <t>lcd16x02</t>
+  </si>
+  <si>
+    <t>27.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/pcf8574ap-112-ic-i-o-expander-100khz-16-dip</t>
+  </si>
+  <si>
+    <t>pcf8574</t>
+  </si>
+  <si>
+    <t>34.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/lua-esp8266-nodemcu-v3-ch340-wifi-module-iot</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>60.000đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-1-2-kohm-1-4w-5-4-vong-mau</t>
+  </si>
+  <si>
+    <t>trở 1.2kohm</t>
+  </si>
+  <si>
+    <t>trở 2.4kohm</t>
+  </si>
+  <si>
+    <t>2.300đ</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-2-4-kohm-1-4w-1-5-vong-mau</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/dien-tro-330-kohm-1-4w-5-4-vong-mau</t>
+  </si>
+  <si>
+    <t>trở 330 ohm</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/pc817c-optoisolator-transistor-output-5000vrms-1-channel-4-dip</t>
+  </si>
+  <si>
+    <t>pc817</t>
+  </si>
+  <si>
+    <t>5.400đ</t>
+  </si>
+  <si>
+    <t>BC547</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/bc547-transistor-npn-45v-0-1a-3-chan-to-92</t>
+  </si>
+  <si>
+    <t>https://nshopvn.com/product/relay-srd-5vdc/?variant=99212</t>
+  </si>
+  <si>
+    <t>Relay SRD 5VDC 5 chân</t>
+  </si>
+  <si>
+    <t>21.000đ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +365,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,17 +392,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -108,6 +423,2475 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>915324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>735726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB31C173-E23F-2FCF-70DE-E6F04D5B4CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901965" y="525518"/>
+          <a:ext cx="836497" cy="591208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>821121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>619041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1141C20-5CF3-0575-9080-02F1FD627AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3993931" y="1359775"/>
+          <a:ext cx="650328" cy="500800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151087</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>788276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>604979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37A29D9-45C0-BABD-194F-3D9C961E1375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4151587" y="2069224"/>
+          <a:ext cx="637189" cy="493307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>716729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D09B584-D7AC-B262-4F11-6BFB046E8408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191001" y="2667001"/>
+          <a:ext cx="571500" cy="664176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840827</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>567624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C036BA-B5A9-648E-B882-522600F71267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4138448" y="3488121"/>
+          <a:ext cx="702879" cy="449382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>583121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE167335-B162-7EE3-05A3-22CEF146FEEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4236984" y="4125311"/>
+          <a:ext cx="525516" cy="530569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>827691</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>571367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FCE694-609B-0A56-2BA9-D3F96421D30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5879225" y="4696811"/>
+          <a:ext cx="624052" cy="545090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>848088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>788276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9FDEB5-2BBF-A4A9-0FDD-C47E15E00A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852948" y="5432534"/>
+          <a:ext cx="670726" cy="656897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>210206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>886811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>742956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05EFA68-D23C-D595-DC64-1572FB1C1EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5879224" y="6424447"/>
+          <a:ext cx="683173" cy="532750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>216775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>886921</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>821121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AA6923-904C-F4FD-CCFC-C40532639966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892361" y="7186449"/>
+          <a:ext cx="670146" cy="689741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>873673</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>724301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E732263-95B8-E98E-484F-51877109B6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859517" y="8020707"/>
+          <a:ext cx="689742" cy="671749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840828</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>691157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CE308D-D6AE-7332-AB2E-B330854BBEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806966" y="8749863"/>
+          <a:ext cx="709448" cy="651742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91967</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840829</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>684961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE49B8C0-51CB-7DD8-A377-A2AA0A870E1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767553" y="9551275"/>
+          <a:ext cx="748862" cy="579858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78828</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927959</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>801413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D01EF2-A930-013D-78D1-5E9C0ED66FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5754414" y="10470931"/>
+          <a:ext cx="849131" cy="650327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>867104</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>656261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6A46C2-EEAE-063C-BD23-F0FC17BE6096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806966" y="11515398"/>
+          <a:ext cx="735724" cy="538018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>860535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>718792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4E6371-82CE-30B3-D0AB-8AC52E3D0B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5866086" y="12251121"/>
+          <a:ext cx="670035" cy="600550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177363</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>775139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>899693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58557026-878B-3871-70D5-0BE7A8C42812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852949" y="13085380"/>
+          <a:ext cx="597776" cy="807727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>917761</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488873E9-418D-80BC-0CA6-2D7577AD3102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5872655" y="14136414"/>
+          <a:ext cx="720692" cy="486104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>827690</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>638030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27A1DEC-1ACD-7EF1-1082-18B4D988C258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5846379" y="14826155"/>
+          <a:ext cx="656897" cy="578909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105104</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>870260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>722586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0FE7B6-7583-8D0B-4B17-3F6F1C3206ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5780690" y="15548740"/>
+          <a:ext cx="765156" cy="610915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65690</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>918202</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B6D100-A6C1-C195-7892-CC6A9E486CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5741276" y="16297604"/>
+          <a:ext cx="852512" cy="512379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170795</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>821123</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>771033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331D434D-1542-377D-F409-A4DF07A9704D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5846381" y="16928224"/>
+          <a:ext cx="650328" cy="731619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>885085</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>683173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3975065-32EF-354F-7202-2D157B1865AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767551" y="17703362"/>
+          <a:ext cx="793120" cy="656897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>863865</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>683173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B5B699-D52B-678D-F792-497030CC18E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5872655" y="18504776"/>
+          <a:ext cx="666796" cy="578069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>249620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>729155</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>710558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A0DC6B-F06F-F893-9DC6-8C77D50F048B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925206" y="19352172"/>
+          <a:ext cx="479535" cy="579179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98535</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>827690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>667261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415294CC-0AF0-A1D3-83F1-68E6259F439C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5774121" y="20186431"/>
+          <a:ext cx="729155" cy="542451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105104</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>873673</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>828836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01DB9D-014E-32D3-A88A-AFABA68FC01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5780690" y="21178346"/>
+          <a:ext cx="768569" cy="730300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>919655</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>795877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A9A683-C070-ABA7-A7AF-CC07EF740772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5833241" y="22216241"/>
+          <a:ext cx="762000" cy="677636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144518</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840829</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>837917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86A03B1-3ACE-9BFC-4CC7-924701353698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5820104" y="23155604"/>
+          <a:ext cx="696311" cy="739382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>926224</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>704727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EE87FA-1195-3CBE-FECD-34935781DEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767551" y="24154086"/>
+          <a:ext cx="834259" cy="599624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742293</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>677267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED98D49-9D10-620C-8390-2D98504D48F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852948" y="24876673"/>
+          <a:ext cx="564931" cy="611577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243052</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>801414</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>729155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D307A7F0-F87B-BD8E-3400-2B18432F9190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918638" y="25684655"/>
+          <a:ext cx="558362" cy="558362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781788</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>610914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C9996B-9D78-96A2-12C9-8024041E90A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912068" y="26446656"/>
+          <a:ext cx="545306" cy="525517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>873672</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>673908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4278EE-AD34-7F70-2C01-FB9E5C915215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5833241" y="27254638"/>
+          <a:ext cx="716017" cy="581942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65690</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>945932</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>894528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA61F83-68BA-33AC-CFE8-C6B565979FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5741276" y="28042913"/>
+          <a:ext cx="880242" cy="769718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144518</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847398</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>824388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EBABED-E415-EC24-47E7-DF96AF3B4B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5820104" y="29225328"/>
+          <a:ext cx="702880" cy="620750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>915324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>757707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1111A9C-0837-F0DC-0B53-82A94C204BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757192" y="547499"/>
+          <a:ext cx="836497" cy="591208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>821121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>641022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9C9074-CC06-B06E-2402-AAE18825F3B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849158" y="1378472"/>
+          <a:ext cx="650328" cy="500800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151087</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>788276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>626960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E66126-5B20-02AB-7098-109C7EB489A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829452" y="2089941"/>
+          <a:ext cx="637189" cy="493307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>738710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC3D21B-21DC-F16C-778D-5F4D210A3FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5868866" y="2690246"/>
+          <a:ext cx="571500" cy="664176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840827</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>589605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C259EC-CE77-B042-7BA0-837585D97B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5816313" y="3510608"/>
+          <a:ext cx="702879" cy="449382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B9E021-FADC-8B11-52E3-C5243AF2EF9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5914849" y="4148302"/>
+          <a:ext cx="525516" cy="530569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>827691</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>593348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E20127-CE36-A373-AF1E-AB0B89E9CD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5882004" y="4722835"/>
+          <a:ext cx="624052" cy="545090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>848088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>810257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BA8B91-EA66-8D29-6D47-8B709B5A0CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5855727" y="5458052"/>
+          <a:ext cx="670726" cy="656897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>232187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>886811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>764937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97992E4-960B-7D83-CC64-DE331406F445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5882003" y="6452745"/>
+          <a:ext cx="683173" cy="532750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>216775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>886921</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>843102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B21DE-7E58-6A4F-91DB-25F0D24DAC5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895140" y="7209188"/>
+          <a:ext cx="670146" cy="689741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>873673</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5EA50F-2E98-DFAD-7D0F-3AC8DC9A0146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5862296" y="8046225"/>
+          <a:ext cx="689742" cy="671749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840828</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>713138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352A672F-6932-6B5A-9032-640511EC077C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809745" y="8773108"/>
+          <a:ext cx="709448" cy="651742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91967</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840829</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>706942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9DCDAF-EA98-14FD-4686-B1819BCD92C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5770332" y="9571488"/>
+          <a:ext cx="748862" cy="579858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78828</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927959</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>823394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3531D496-2C0D-35A9-CF8C-00AC5888D5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757193" y="10496702"/>
+          <a:ext cx="849131" cy="650327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>867104</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>678242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96AD2BE-F8AD-B199-56A8-436C2EA16FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809745" y="11540916"/>
+          <a:ext cx="735724" cy="538018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>860535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>740773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F04058C-70DF-C308-D8F6-DA30417A2AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5868865" y="12273608"/>
+          <a:ext cx="670035" cy="600550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177363</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>775139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>921674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB22619-A97E-F53C-C638-C710F40AA12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5855728" y="13104582"/>
+          <a:ext cx="597776" cy="807727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>917761</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>593482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87E85B3-3216-F1B5-1AE1-4B4AA21303E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875434" y="14153090"/>
+          <a:ext cx="720692" cy="486104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>827690</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>660011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8F22E2-AA0F-8A20-6246-9902FB4E8282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849158" y="14844852"/>
+          <a:ext cx="656897" cy="578909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105104</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>870260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>744567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72C82FD-2168-CEB7-1294-25272CB15257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783469" y="15564152"/>
+          <a:ext cx="765156" cy="610915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,24 +3157,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="85.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -400,7 +3185,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,172 +3204,762 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>7805</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{FFE56AB3-B24A-4803-9FCD-13940269657F}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{165B6B0F-AD11-448B-83E1-45B71E3CF367}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{7AF48FAA-F9B3-48C2-9055-9001A7ED5370}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{EB0F34D1-96E3-44D4-8FC4-517E27731617}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{1E317D7D-E6F4-408C-A258-D79E0146FAB0}"/>
+    <hyperlink ref="G31" r:id="rId6" xr:uid="{4F2D3E3E-8947-4B03-A57C-F1210CC6DBC4}"/>
+    <hyperlink ref="G34" r:id="rId7" xr:uid="{79E16587-6EBE-40D1-9693-BA7CCEBA0DDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>